--- a/biology/Botanique/Codium_tomentosum/Codium_tomentosum.xlsx
+++ b/biology/Botanique/Codium_tomentosum/Codium_tomentosum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Codium tomentosum est une espèce d’algues vertes de la famille des Codiaceae. Elle a été décrite par Stackhouse en 1797. Elle est aussi appelée codium tomenteux.[réf. souhaitée]
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une algue verte possédant un thalle d’environ 30 cm de long, de couleur vert foncé. Ce thalle est épais (8 mm à 1 cm de diamètre), il forme des sortes de cordons, de cylindres tubulaires se ramifiant et se terminant par des pointes arrondies. Elle présente une consistance ressemblant à de l’éponge. En été le Thalle se recouvre de poils blancs faisant penser à du velours ou de la fourrure. Son crampon est formé de nombreux filaments solidement incrustés, ancrés sur le substrat.
 </t>
@@ -542,7 +556,9 @@
           <t>Écologie et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C’est une espèce qui se développe au niveau de l’étage infralittoral, se fixant sur les rochers et pouvant aller jusqu’à une profondeur de 20 m environ. C’est une espèce très commune de par le monde et on la retrouve un peu partout.
 </t>
@@ -573,11 +589,13 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon BioLib                    (11 août 2017)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon BioLib                    (11 août 2017) :
 variété Codium tomentosum var. mucronatum (G. Hamel) Ardré
-Selon World Register of Marine Species                               (11 août 2017)[3] :
+Selon World Register of Marine Species                               (11 août 2017) :
 variété Codium tomentosum var. capense J.E. Areschoug
 variété Codium tomentosum var. genuinum Lázaro &amp; Ibiza
 variété Codium tomentosum var. implicatum C.Agardh
